--- a/data/single-life-example.xlsx
+++ b/data/single-life-example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ntnc/Workspace/GitHub/combination-engine/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769DDA16-15A9-284C-B00C-7ED01550B669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB47DF60-55A9-4445-99EF-2A7B0D373016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-2340" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,9 +122,6 @@
     <t>[Request][Body]data.clientProfiles[].personalInfo.occupation.class</t>
   </si>
   <si>
-    <t>https://vpms-dev.aks.lb1-sglife-uat-az1-ios0n9.pru.intranet.asia/vpms-api/v2/products</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
@@ -351,13 +348,16 @@
   </si>
   <si>
     <t>No age mismatches - same person always has same age</t>
+  </si>
+  <si>
+    <t>https://vpms-d2c.lb1-sglife-uat-az1-lr0obp.pru.intranet.asia/vpms-api/v2/products</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,6 +384,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -430,10 +438,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -442,8 +451,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -746,9 +757,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -858,125 +869,128 @@
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
         <v>39</v>
       </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>40</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>41</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" t="s">
         <v>43</v>
       </c>
-      <c r="M2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>44</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>46</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>47</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>48</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>49</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W2" t="s">
         <v>50</v>
       </c>
-      <c r="V2" t="s">
-        <v>47</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>51</v>
       </c>
-      <c r="X2" t="s">
-        <v>52</v>
-      </c>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Z2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB2" t="s">
         <v>51</v>
       </c>
-      <c r="AB2" t="s">
-        <v>52</v>
-      </c>
       <c r="AC2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AE2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AF2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="L3" s="3"/>
       <c r="R3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="L4" s="3"/>
       <c r="T4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="L5" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{80EAE3C5-59D7-D549-AD9E-E4090A27CB03}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -995,226 +1009,226 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
         <v>59</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>60</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>61</v>
-      </c>
-      <c r="D2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
         <v>63</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>64</v>
-      </c>
-      <c r="D3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
         <v>66</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>67</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>68</v>
-      </c>
-      <c r="D5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" t="s">
         <v>70</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>71</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>72</v>
-      </c>
-      <c r="D7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
         <v>74</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>75</v>
-      </c>
-      <c r="D8" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
         <v>77</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>78</v>
-      </c>
-      <c r="D9" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
         <v>80</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>81</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>82</v>
-      </c>
-      <c r="D11" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
         <v>84</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>85</v>
-      </c>
-      <c r="D12" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
         <v>87</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>88</v>
-      </c>
-      <c r="D13" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s">
         <v>90</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>91</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>92</v>
-      </c>
-      <c r="D15" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" t="s">
         <v>94</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>95</v>
-      </c>
-      <c r="D16" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" t="s">
         <v>97</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>98</v>
-      </c>
-      <c r="D17" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" t="s">
         <v>100</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>101</v>
-      </c>
-      <c r="D18" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" t="s">
         <v>103</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>104</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>105</v>
-      </c>
-      <c r="D20" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" t="s">
         <v>107</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>108</v>
-      </c>
-      <c r="D21" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
